--- a/Datos/libros/convert/xlsx/Gibrán Khalil Gibrán - El loco_esp.xlsx
+++ b/Datos/libros/convert/xlsx/Gibrán Khalil Gibrán - El loco_esp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86FEBC2B-93F6-447D-81EC-A9B5AB2D6CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{86FEBC2B-93F6-447D-81EC-A9B5AB2D6CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296248B5-EAD3-4006-8E66-105E69FA0638}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="3540" windowWidth="43200" windowHeight="23535" xr2:uid="{ECF38DDE-4159-44B0-8CB3-5A4BCF32C7AF}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{ECF38DDE-4159-44B0-8CB3-5A4BCF32C7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="509">
   <si>
     <t>Gibrán Khalil Gibrán</t>
   </si>
@@ -213,226 +191,6 @@
     <t>Y te contesto:</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡Compañero!_x000D_
-¡Camarada!, porque no quiero que veas mi Infierno._x000D_
-Las llamas te cegarían, y el humo te ahogaría._x000D_
-Y me gusta mi Infierno; lo amo al grado de no dejar que lo visites._x000D_
-Prefiero estar solo en mi Infierno._x000D_
-Tu amas la Verdad, la Belleza y lo Justo, y yo, por complacerte, digo que está bien, y simulo amar estas cosas._x000D_
-Pero en el fondo de mi corazón me río de tu amor por estas entidades._x000D_
-Sin embargo, no te dejo ver mi risa: prefiero reír a solas._x000D_
-Amigo mío, eres bueno, discreto y sensato; es más: eres perfecto._x000D_
-Y yo, a mi vez, hablo contigo con sensatez y discreción, pero.  estoy loco._x000D_
-Sólo que enmascaro mi locura._x000D_
-Prefiero estar loco, a solas._x000D_
-Amigo mío, tú no eres mi amigo._x000D_
-Pero, ¿cómo hacer que lo comprendas?_x000D_
-Mi senda no es tu senda y, sin embargo, caminamos juntos, tomados de la mano._x000D_
-EL ESPANTAPÁJAROS_x000D_
-Debes de estar cansado de permanecer inmóvil en este solitario campo -  dije en día a un espantapájaros._x000D_
-La dicha de asustar es profunda y duradera; nunca me cansa -  me dijo._x000D_
-Tras un minuto de reflexión, le dije:_x000D_
-Es verdad; pues yo también he conocido esa dicha._x000D_
-Sólo quienes están rellenos de paja pueden conocerla  - me dijo._x000D_
-Entonces, me alejé del espantapájaros, sin saber si me había elogiado o minimizado._x000D_
-Transcurrió un año, durante el cual el espantapájaros se convirtió en filósofo._x000D_
-Y cuando volví a pasar junto a él, vi que dos cuervos habían anidado bajo su sombrero._x000D_
-LAS SONÁMBULAS_x000D_
-En mi ciudad natal vivían una mujer y sus hija, que caminaban dormidas._x000D_
-Una noche, mientras el silencio envolvía al mundo, la mujer y su hija caminaron dormidas hasta que se reunieron en el jardín envuelto en un velo de niebla._x000D_
-Y la madre habló primero:_x000D_
-¡Al fin!_x000D_
-dijo - ._x000D_
-¡Al fin puedo decírtelo, mi enemiga!_x000D_
-¡A ti, que destrozaste mi juventud, y que has vivido edificando tu vida en las ruinas de la mía!_x000D_
-¡Tengo deseos de matarte!_x000D_
-Luego, la hija habló, en estos términos:_x000D_
-¡Oh mujer odiosa, egoísta .y vieja!_x000D_
-¡Te interpones entre mi libérrimo ego y yo!_x000D_
-¡Quisieras que mi vida fuera un eco de tu propia vida marchita!_x000D_
-¡Desearías que estuvieras muerta!_x000D_
-En aquel instante cantó el gallo, y ambas mujeres despertaron._x000D_
-¿Eres tú, tesoro?_x000D_
-dijo la madre amablemente._x000D_
-Sí; soy yo, madre querida  - respondió la hija con la misma amabilidad._x000D_
-EL PERRO SABIO_x000D_
-Un día, un perro sabio pasó cerca de un grupo de gatos._x000D_
-Y viendo el perro que los gatos parecían estar absortos, hablando entre sí, y que no advertían su presencia, se detuvo a escuchar lo que decían._x000D_
-Se levantó entonces, grave y circunspecto, un gran gato, observó a sus compañeros._x000D_
-Hermanos  - dijo - , orad; y cuando hayáis orado una y otra vez, y vuelto a orar, sin duda alguna lloverán ratones del cielo._x000D_
-Al oírlo, el perro rió para sus adentros, y se alejó de los gatos, diciendo:_x000D_
-¡Ciegos e insensatos felinos!_x000D_
-¿No está escrito, y no lo he sabido siempre, y mis padres antes que yo que lo que llueve cuando elevamos al Cielo súplicas y plegarias son huesos, y no ratones?_x000D_
-LOS DOS ERMITAÑOS_x000D_
-En una lejana montaña vivían dos ermitaños que rendían culto a Dios y que se amaban uno al otro._x000D_
-Los dos ermitaños poseían una escudilla de barro que constituía su única posesión._x000D_
-Un día, un espíritu malo entró en el corazón del ermitaño más viejo, el cual fue a ver al más joven._x000D_
-Hace ya mucho tiempo que hemos vivido juntos  - le dijo - ._x000D_
-Ha llegado la hora de separarnos._x000D_
-Por tanto, dividamos nuestras posesiones._x000D_
-Al oírlo, el ermitaño más joven se entristeció._x000D_
-Hermano mío  - dijo - , me causa pesar que tengas que dejarme._x000D_
-Pero si es necesario que te marches, que así sea._x000D_
-Y fue por la escudilla de barro, y se la dio a su compañero, diciéndole_x000D_
-No podemos repartirla, hermano; que sea para ti._x000D_
-No acepto tu caridad  - replicó el otro - ._x000D_
-No tomaré sino lo que me pertenece._x000D_
-Debemos partirla._x000D_
-El joven razonó:_x000D_
-Si rompemos la escudilla, ¿de qué nos servirá a ti o a mí?_x000D_
-Si te parece, propongo que la juguemos a suerte._x000D_
-Pero el ermitaño persistió en su empeño._x000D_
-Sólo tomaré lo que en justicia me corresponde, y no confiaré la escudilla ni mis derechos a la suerte._x000D_
-Debe partirse la escudilla._x000D_
-El ermitaño más joven, viendo que no salían razones, dijo:_x000D_
-Está bien: si tal es tu deseo, y si te niegas a aceptar la escudilla, rompámosla y repartámosla._x000D_
-Y entonces el rostro del ermitaño más viejo se descompuso de ira, y gritó:_x000D_
-¡Ah, maldito_ cobarde!_x000D_
-no te atreves a pelear, ¿eh?_x000D_
-DEL DAR Y EL RECIBIR_x000D_
-Había una vez un hombre que poseía todo un valle lleno de agujas._x000D_
-Y un día, la madre de Jesús acudió a aquel hombre y le dijo:_x000D_
-Amigo mío, la túnica de mi hijo se rasgó, y tengo que remendársela antes de que salga para el templo._x000D_
-¿Quieres darme una de tus agujas?_x000D_
-Pero, en vez de darle la aguja, aquel hombre pronunció un erudito discurso acerca Del dar y del recibir, para que María se lo repitiera a su Hijo antes de que éste saliera para el templo._x000D_
-LOS SIETE EGOS_x000D_
-En la hora más silente de la noche, mientras estaba yo acostado y dormitando, mis siete egos sentáronse en rueda a conversar en susurros, en estos términos:_x000D_
-Primer Ego:  - He vivido aquí, en este loco, todos estos años, y no he hecho otra cosa que renovar sus penas de día y reavivar su tristeza de noche._x000D_
-No puedo soportar más mi destino, y me rebelo._x000D_
-Segundo Ego:  - Hermano, es mejor tu destino que el mío, pues me ha tocado ser el ego alegre de este loco._x000D_
-Río cuando está alegre y canto sus horas de dicha, y con pies alados danzo sus más alegres pensamientos._x000D_
-Soy yo quien se rebela contra tan fatigante existencia._x000D_
-Tercer Ego:  -  ¿Y de mi qué decís, el ego aguijoneado por el amor, la tea llameante de salvaje pasión y fantásticos deseos?_x000D_
-Es el ego enfermo de amor el que debe rebelarse contra este loco._x000D_
-Cuarto Ego:  - El más miserable de todos vosotros soy yo, pues sólo me tocó en suerte el odio y las ansias destructivas._x000D_
-Yo, el ego tormentoso, el que nació en las negras cuevas del infierno, soy el que tiene más derecho a protestar por servir a este loco._x000D_
-Quinto Ego:  - No; yo soy, el ego pensante, el ego de la imaginación, el que sufre hambre y sed, el condenado a vagar sin descanso en busca de lo desconocido y de lo increado.  soy yo, y no vosotros, quien tiene más derecho a rebelarse._x000D_
-Sexto Ego:  - Y yo, el ego que trabaja, el agobiado trabajador que con pacientes manos y ansiosa mirada va modelando los días en imágenes y va dando a los elementos sin forma contornos nuevos y eternos.  Soy yo, el solitario, el que más motivos tiene para rebelarse contra este inquieto loco._x000D_
-Séptimo Ego:  -  ¡Qué extraño que todos os rebeléis contra este hombre por tener a cada uno de vosotros una misión prescrita de antemano!_x000D_
-¡Ah!_x000D_
-¡Cómo quisiera ser uno de vosotros, un ego con un propósito y un destino marcado!_x000D_
-Pero no; no tengo un propósito fijo: soy el ego que no hace nada; el que se sienta en el mudo y vacío espacio que no es espacio y en el tiempo que no es tiempo, mientras vosotros os afanáis recreándoos en la vida._x000D_
-Decidme, vecinos, ¿quién debe rebelarse: vosotros o yo?_x000D_
-Al terminar de hablar el Séptimo Ego, los otros seis lo miraron con lástima, pero no dijeron nada más; y al hacerse la noche más profunda, uno tras otro se fueron a dormir, llenos de una nueva y feliz resignación._x000D_
-Sólo el Séptimo Ego permaneció despierto, mirando y atisbando a la Nada, que está detrás de todas las cosas._x000D_
-LA GUERRA_x000D_
-Una noche, hubo fiesta en palacio, y un hombre llegó a postrarse ante el príncipe; todos los invitados se quedaron mirando al recién llegado, y vieron que le faltaba un ojo, y que la cuenca vacía sangraba._x000D_
-Y el príncipe le preguntó a aquel hombre:_x000D_
-¿Qué te ha sucedido?_x000D_
-¡Oh príncipe!_x000D_
-respondió el hombre - , mi profesión es ser ladrón, y esta noche, como no hay luna, fui a robar la tienda del cambista, pero mientras subía y entraba por la ventana cometí un error, y entré en la tienda del tejedor, y en la oscuridad tropecé con el telar del tejedor, y perdí un ojo._x000D_
-Y ahora, ¡oh príncipe!_x000D_
-suplico justicia contra el tejedor._x000D_
-El príncipe mandó traer al tejedor y, al llegar éste al palacio, el soberano decretó que le vaciaran un ojo._x000D_
-¡Oh príncipe!_x000D_
-dijo el tejedor - , el decreto es justo._x000D_
-No me quejo de que me hayan sacado un ojo._x000D_
-Sin embargo, ¡ay de mí!, necesitaba yo los dos ojos para ver los dos lados de la tela que hago._x000D_
-Pero tengo un vecino de oficio zapatero, que tiene los dos ojos sanos, y en su trabajo no necesita los dos ojos._x000D_
-El príncipe entonces, envió por el zapatero._x000D_
-Y éste acudió, y le sacaron un ojo._x000D_
-¡Y se hizo justicia!_x000D_
-LA ZORRA_x000D_
-Al amanecer, una zorra miró su sombra, y se dijo:_x000D_
-Hoy almorzaré un camello._x000D_
-Y pasó toda la mañana buscando camellos._x000D_
-Pero al mediodía volvió a mirar su sombra, y se dijo:  - Bueno.  me conformaré con un ratón._x000D_
-EL REY SABIO_x000D_
-Había una vez, en la lejana ciudad de Wirani, un rey que gobernaba a sus súbditos con tanto poder como sabiduría._x000D_
-Y le temían por su poder, y lo amaban por su sabiduría._x000D_
-Había también un el corazón de esa ciudad un pozo de agua fresca y cristalina, del que bebían todos los habitantes; incluso el rey y sus cortesanos, pues era el único pozo de la ciudad._x000D_
-Una noche, cuando todo estaba en calma, una bruja entró en la ciudad y vertió siete gotas de un misterioso líquido en el pozo, al tiempo que decía:_x000D_
-Desde este momento, quien beba de esta agua se volverá loco._x000D_
-A la mañana siguiente, todos los habitantes del reino, excepto el rey y su gran chambelán, bebieron del pozo y enloquecieron, tal como había predicho la bruja._x000D_
-Y aquel día, en las callejuelas y en el mercado, la gente no hacía sino cuchichear:_x000D_
-El rey está loco._x000D_
-Nuestro rey y su gran chambelán perdieron la razón._x000D_
-No podemos permitir que nos gobierne un rey loco; debemos destronarlo._x000D_
-Aquella noche, el rey ordenó que llenaran con agua del pozo una gran copa de oro._x000D_
-Y cuando se la llevaron, el soberano ávidamente bebió y pasó la copa a su gran chambelán, para que también bebiera._x000D_
-Y hubo un gran regocijo en la lejana ciudad de Wirani, porque el rey y el gran chambelán habían recobrado la razón._x000D_
-AMBICIÓN_x000D_
-Una vez sentáronse a la mesa de una taberna tres hombres._x000D_
-Uno de ellos era tejedor, el otro carpintero, y el tercero sepulturero._x000D_
-Hoy vendí una fina mortaja de lino en dos monedas de oro  - dijo el tejedor - ._x000D_
-Por tanto, bebamos todo el vino que nos plazca._x000D_
-Y yo  - dijo el carpintero - , vendí mi mejor ataúd._x000D_
-Además del vino, que nos traigan un suculento asado._x000D_
-Yo sólo cavé una tumba  - dijo el sepulturero - , pero mi amo me pagó el doble._x000D_
-Que nos traigan también pasteles de miel._x000D_
-Y durante toda aquella noche hubo gran movimiento en la taberna, pues los tres amigos a menudo pedían más vino, carne y pasteles._x000D_
-Y estaban muy contentos._x000D_
-Y el tabernero se frotaba las manos, sonriendo a su mujer, pues los huéspedes gastaban espléndidamente._x000D_
-Al salir los tres amigos de la taberna la luna ya estaba en lo alto; iban caminando los tres felices cantando y gritando._x000D_
-El tabernero y su mujer parados a la puerta de la taberna, miraron complacidos a sus huéspedes._x000D_
-¡Ah!_x000D_
-¡qué caballeros tan generosos y alegres!_x000D_
-exclamó la mujer - ._x000D_
-Ojalá que nos trajeran suerte y todos los días fueran así; nuestro hijo no tendría que trabajar de tabernero, ni tendría que afanarse tanto: podríamos darle una buena educación, para que fuera sacerdote._x000D_
-EL NUEVO PLACER_x000D_
-Anoche inventé un nuevo placer._x000D_
-y me disponía a probarlo por vez primera cuando un ángel y un demonio llegaron presurosos a mi casa._x000D_
-Ambos se encontraron en mi puerta y disputaron acerca de mi placer recién creado; uno de los dos gritaba:_x000D_
-¡Es un pecado!_x000D_
-Y el otro, en igual tono aseguraba:  -  ¡Es una virtud!_x000D_
-EL OTRO IDIOMA_x000D_
-A los tres días de nacido, mientras yacía en mi cuna forrada de seda, mirando con asombrada desilusión el nuevo mundo que me rodeaba, mi madre dijo a mi nodriza:  - ¿Cómo está mi hijo?_x000D_
-Muy bien, señora  - mi nodriza le contestó - , lo he alimentado tres veces, y nunca he visto a un niño tan alegre, no obstante lo tierno que es._x000D_
-Y yo me indigné, y lloré, exclamando_x000D_
-No es verdad, madre: porque mi lecho es duro, la leche que he succionado es amarga, y el olor del pecho es desagradable a mi nariz, y soy muy desgraciado._x000D_
-Pero mi madre no me comprendió, ni la nodriza; pues el idioma en que había yo hablado era el del mundo del que yo procedía._x000D_
-Y cuando cumplí veintiún días de vida, mientras me bautizaban, el sacerdote le dijo a mi madre:_x000D_
-Debe usted ser muy feliz, señora, de que su hijo haya nacido cristiano._x000D_
-Me asombré mucho al oír aquello, y le dije al sacerdote:    - en ese caso, la madre de usted, no está en el Cielo, debe ser muy infeliz, pues usted no nació cristiano._x000D_
-Pero el sacerdote tampoco entendió mi idioma._x000D_
-Y siete lunas después, cierto día, un adivino me miró y le dijo a mi madre:_x000D_
-Su hijo será un estadista, y un gran líder de los hombres._x000D_
-¡Falso!_x000D_
-grité yo - ._x000D_
-Esa es una falsa profecía; porque yo seré músico, y nada más que músico!_x000D_
-Y tampoco en esa ocasión y teniendo yo esa edad entendían mi idioma, lo cual me asombraba mucho._x000D_
-Y después de treinta y tres años, durante los cuales han muerto ya mi madre, mi nodriza y el sacerdote (la sombra de Dios proteja sus espíritus), sólo sobrevive el adivino._x000D_
-Ayer lo vi cerca de la entrada del templo, y mientras conversábamos, me dijo:_x000D_
-Siempre supe que serías músico; que llegarías a ser un gran músico._x000D_
-Eras muy pequeño cuando profeticé tu futuro._x000D_
-Y le creí, pues ahora yo también he olvidado el idioma de aquel otro mundo._x000D_
-LA GRANADA_x000D_
-Una vez, mientras vivía yo en el corazón de una granada, oí que una semilla decía;_x000D_
-Algún día me convertiré en un árbol, y cantará el viento en mis ramas, y el sol danzará en mis hojas, y seré fuerte y hermoso en todas las estaciones._x000D_
-Luego, otra semilla habló, y dijo:  - Cuando yo era joven, como tú ahora, yo también pensaba así; pero ahora que puedo ponderar mejor todas las cosas, veo que mis esperanzas eran vanas._x000D_
-Y una tercera semilla se expresó así:  - No veo en nosotras nada que prometa tan brillante futuro._x000D_
-Y una cuarta semilla dijo:  -  ¡Pero que ridícula sería nuestra vida, sin la promesa de un futuro mejor!_x000D_
-La quinta semilla opinó:  - .¿Para qué disputar acerca de lo que seremos, si ni siquiera sabemos lo que somos?_x000D_
-Pero la sexta semilla replicó:  - Seamos lo que seamos, lo seremos siempre._x000D_
-Y la séptima semilla comentó:  - Tengo una idea muy clara acerca de cómo serán las cosas en lo futuro, pero no la puedo expresar con palabras._x000D_
-Y luego habló una octava semilla, y una novena, y luego una décima, y luego muchas, hasta que todas hablaban a un tiempo y no pude distinguir nada de lo que decían todas esas voces._x000D_
-Así pues, aquel mismo día me mudé al corazón de un membrillo, donde las semillas son escasas y casi mudas._x000D_
-LAS DOS JAULAS_x000D_
-En el jardín de mi padre hay dos jaulas._x000D_
-En una está encerrado un león, que los esclavos de mi padre trajeron del desierto de Ninavah; en la otra vive un gorrión que no canta._x000D_
-Al amanecer, todos los días, el gorrión le dice al león:  - Buenos días, hermano prisionero._x000D_
-LAS TRES HORMIGAS_x000D_
-Tres hormigas se encontraron en la nariz de un hombre que estaba tendido, durmiendo al sol._x000D_
-Y después de saludarse cada hormiga a la manera y usanza de su propia tribu, se detuvieron allí, a conversar._x000D_
-Estas colinas y estas llanuras  - dijo la primera hormiga -  son las más áridas que he visto en mi vida; he buscado todo el día algún grano, y no he encontrado nada._x000D_
-Yo tampoco he encontrado nada  - comentó la segunda hormiga -  aunque he visitado todos los escondrijos._x000D_
-Esta es, supongo, la que llama mi gente la blanda tierra móvil donde no crece nada._x000D_
-Amigas mías  - dijo la tercera hormiga, alzando la cabeza - , estamos paradas ahora en la nariz de la Suprema Hormiga, la poderosa e infinita Hormiga, cuyo cuerpo es tan grande que no podemos verlo, cuya sombra es tan vasta que no podemos abarcar, cuya voz es tan potente que no podemos oírla; y esta Hormiga es omnipresente._x000D_
-Al terminar la tercera hormiga de decir esto, las otras dos se miraron, y rieron._x000D_
-En ese momento el hombre se movió, y en su sueño alzó la mano para rascarse la nariz, y aplastó a las tres hormigas._x000D_
-EL SEPULTURERO_x000D_
-Una vez, mientras yo estaba enterrando a uno de mis egos, se acercó a mí el sepulturero, para decirme:_x000D_
-De todos los que vienen aquí a enterrar a sus egos muertos, sólo tú me eres simpático._x000D_
-Me halagas mucho  - le repliqué - ; pero, ¿por qué te inspiro tanta simpatía?_x000D_
-Porque todos llegan aquí llorando  - me contestó el sepulturero - , y se van llorando; sólo tú llegas riendo, y te marchas riendo, cada vez._x000D_
-EN LA ESCALINATA DEL TEMPLO_x000D_
-Ayer tarde, en la escalinata de mármol del templo vi a una mujer sentada entre dos hombres._x000D_
-Una de las mejillas de la mujer estaba pálida, y la otra, sonrojada._x000D_
-LA CIUDAD BENDITA_x000D_
-Era yo muy joven cuando me dijeron que en cierta ciudad todos sus habitantes vivían con apego a las Escrituras._x000D_
-Y me dije: Buscaré esa ciudad y la santidad que en ella se encuentra".</t>
-  </si>
-  <si>
     <t>Y aquella ciudad quedaba muy lejos de mi patria.</t>
   </si>
   <si>
@@ -844,46 +602,6 @@
     <t>Estaba yo prisionero en vuestros días y en vuestras noches, y busqué una puerta hacia más vastos días y más vastas noches.</t>
   </si>
   <si>
-    <t>Y ahora, me voy, como se han ido ya otros crucificados._x000D_
-Y no penséis que nosotros los locos estamos cansados de tanta crucifixión._x000D_
-Pues debemos ser crucificados por hombres cada vez más grandes, entre tierras más vastas y cielos más espaciosos._x000D_
-EL ASTRÓNOMO_x000D_
-A la sombra del templo mi amigo y yo vimos a un ciego, sentado allí, solitario._x000D_
-Mira  - dijo mi amigo - : ese es el hombre más sabio de nuestra tierra._x000D_
-Me separé de mi amigo y me acerqué al ciego._x000D_
-Lo saludé._x000D_
-Y conversamos._x000D_
-Poco después le dije:_x000D_
-Perdona mi pregunta: ¿desde cuándo eres ciego?_x000D_
-Desde que nací  - fue su respuesta._x000D_
-¿Y qué sendero de sabiduría sigues?_x000D_
-le dije entonces._x000D_
-Soy astrónomo  - me contestó el ciego._x000D_
-Luego, se llevó la mano al pecho, y dijo: - Sí; observo todos estos soles, y estas lunas, y estas estrellas._x000D_
-EL GRAN ANHELO_x000D_
-Aquí estoy, sentado entre mi hermana la montaña y mi hermana la mar._x000D_
-Los tres somos uno en nuestra soledad, y el amor que nos une es profundo, fuerte y extraño._x000D_
-En realidad, este amor es más profundo que mi hermana la mar y más fuerte que mi hermana la montaña, y más extraño que lo insólito de mi locura._x000D_
-Han pasado eones y más eones desde que la primera alborada gris nos hizo visibles uno al otro; y aunque hemos visto el nacimiento, la plenitud y la muerte de muchos mundos, aún somos vehementes y jóvenes._x000D_
-Somos jóvenes y vehementes, y no obstante estamos solos y nadie nos visita, y a pesar de que yacemos en un abrazo casi completo y sin trabas, no hemos hallado consuelo._x000D_
-Pues, decidme: ¿qué consuelo puede haber para el deseo controlado y la pasión inexhausta?_x000D_
-¿De dónde vendrá el flamígero dios que dé calor al lecho de mi hermana la mar?_x000D_
-¿Y qué torrentes aplacará el fuego de mi hermana la montaña?_x000D_
-¿Y qué mujer podrá adueñarse de mi corazón?_x000D_
-En el silencio de la noche, en sueños, mi hermana la mar susurra el ignoto nombre del dios flamígero, y mi hermana la montaña llama a lo lejos al fresco y distante dios - torrente._x000D_
-Pero yo no sé a quién llamar en mi sueño._x000D_
-Aquí estoy sentado, entre mi hermana la montaña y mi hermana la mar._x000D_
-Los tres somos uno en nuestra soledad, y el amor que nos une es en verdad profundo, fuerte, y extraño._x000D_
-DIJO UNA HOJA DE HIERBA_x000D_
-Dijo una mata de hierba a una hoja de otoño:_x000D_
-¡Al caer haces tanto ruido, que espantas a todos mis sueños invernales!_x000D_
-Ser de baja cuna y de miserable morada  - dijo la hoja, indignada - , ser malhumorado y sin canto: ¡tú no vives en la región alta del aire, y desconoces el sonido del canto!_x000D_
-Luego, la hoja de otoño cayó sobre la tierra, y se durmió._x000D_
-Y al llegar la primavera, la hoja despertó nuevamente, y se convirtió en una mata de hierba._x000D_
-Y cuando el otoño llegó, y la mata de hierba comenzó a adormecerse con el sueño invernal, las hojas del otoño, meciéndose en el viento, iban cayendo sobre ella._x000D_
-Entonces se dijo, enojada: ¡Ah, estas hojas de otoño!</t>
-  </si>
-  <si>
     <t>¡Cuánto ruido hacen!</t>
   </si>
   <si>
@@ -1080,6 +798,771 @@
   </si>
   <si>
     <t>Dímelo tú, oh Dios, que te encuentras perdido entre los demás dioses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¡Compañero!</t>
+  </si>
+  <si>
+    <t>¡Ah!</t>
+  </si>
+  <si>
+    <t>AMBICIÓN</t>
+  </si>
+  <si>
+    <t>¡Falso!</t>
+  </si>
+  <si>
+    <t>¡Camarada!, porque no quiero que veas mi Infierno.</t>
+  </si>
+  <si>
+    <t>Las llamas te cegarían, y el humo te ahogaría.</t>
+  </si>
+  <si>
+    <t>Y me gusta mi Infierno; lo amo al grado de no dejar que lo visites.</t>
+  </si>
+  <si>
+    <t>Prefiero estar solo en mi Infierno.</t>
+  </si>
+  <si>
+    <t>Tu amas la Verdad, la Belleza y lo Justo, y yo, por complacerte, digo que está bien, y simulo amar estas cosas.</t>
+  </si>
+  <si>
+    <t>Pero en el fondo de mi corazón me río de tu amor por estas entidades.</t>
+  </si>
+  <si>
+    <t>Sin embargo, no te dejo ver mi risa: prefiero reír a solas.</t>
+  </si>
+  <si>
+    <t>Amigo mío, eres bueno, discreto y sensato; es más: eres perfecto.</t>
+  </si>
+  <si>
+    <t>Y yo, a mi vez, hablo contigo con sensatez y discreción, pero.  estoy loco.</t>
+  </si>
+  <si>
+    <t>Sólo que enmascaro mi locura.</t>
+  </si>
+  <si>
+    <t>Prefiero estar loco, a solas.</t>
+  </si>
+  <si>
+    <t>Amigo mío, tú no eres mi amigo.</t>
+  </si>
+  <si>
+    <t>Pero, ¿cómo hacer que lo comprendas?</t>
+  </si>
+  <si>
+    <t>Mi senda no es tu senda y, sin embargo, caminamos juntos, tomados de la mano.</t>
+  </si>
+  <si>
+    <t>EL ESPANTAPÁJAROS</t>
+  </si>
+  <si>
+    <t>Debes de estar cansado de permanecer inmóvil en este solitario campo -  dije en día a un espantapájaros.</t>
+  </si>
+  <si>
+    <t>La dicha de asustar es profunda y duradera; nunca me cansa -  me dijo.</t>
+  </si>
+  <si>
+    <t>Tras un minuto de reflexión, le dije:</t>
+  </si>
+  <si>
+    <t>Es verdad; pues yo también he conocido esa dicha.</t>
+  </si>
+  <si>
+    <t>Sólo quienes están rellenos de paja pueden conocerla  - me dijo.</t>
+  </si>
+  <si>
+    <t>Entonces, me alejé del espantapájaros, sin saber si me había elogiado o minimizado.</t>
+  </si>
+  <si>
+    <t>Transcurrió un año, durante el cual el espantapájaros se convirtió en filósofo.</t>
+  </si>
+  <si>
+    <t>Y cuando volví a pasar junto a él, vi que dos cuervos habían anidado bajo su sombrero.</t>
+  </si>
+  <si>
+    <t>LAS SONÁMBULAS</t>
+  </si>
+  <si>
+    <t>En mi ciudad natal vivían una mujer y sus hija, que caminaban dormidas.</t>
+  </si>
+  <si>
+    <t>Una noche, mientras el silencio envolvía al mundo, la mujer y su hija caminaron dormidas hasta que se reunieron en el jardín envuelto en un velo de niebla.</t>
+  </si>
+  <si>
+    <t>Y la madre habló primero:</t>
+  </si>
+  <si>
+    <t>¡Al fin!</t>
+  </si>
+  <si>
+    <t>dijo - .</t>
+  </si>
+  <si>
+    <t>¡Al fin puedo decírtelo, mi enemiga!</t>
+  </si>
+  <si>
+    <t>¡A ti, que destrozaste mi juventud, y que has vivido edificando tu vida en las ruinas de la mía!</t>
+  </si>
+  <si>
+    <t>¡Tengo deseos de matarte!</t>
+  </si>
+  <si>
+    <t>Luego, la hija habló, en estos términos:</t>
+  </si>
+  <si>
+    <t>¡Oh mujer odiosa, egoísta .y vieja!</t>
+  </si>
+  <si>
+    <t>¡Te interpones entre mi libérrimo ego y yo!</t>
+  </si>
+  <si>
+    <t>¡Quisieras que mi vida fuera un eco de tu propia vida marchita!</t>
+  </si>
+  <si>
+    <t>¡Desearías que estuvieras muerta!</t>
+  </si>
+  <si>
+    <t>En aquel instante cantó el gallo, y ambas mujeres despertaron.</t>
+  </si>
+  <si>
+    <t>¿Eres tú, tesoro?</t>
+  </si>
+  <si>
+    <t>dijo la madre amablemente.</t>
+  </si>
+  <si>
+    <t>Sí; soy yo, madre querida  - respondió la hija con la misma amabilidad.</t>
+  </si>
+  <si>
+    <t>EL PERRO SABIO</t>
+  </si>
+  <si>
+    <t>Un día, un perro sabio pasó cerca de un grupo de gatos.</t>
+  </si>
+  <si>
+    <t>Y viendo el perro que los gatos parecían estar absortos, hablando entre sí, y que no advertían su presencia, se detuvo a escuchar lo que decían.</t>
+  </si>
+  <si>
+    <t>Se levantó entonces, grave y circunspecto, un gran gato, observó a sus compañeros.</t>
+  </si>
+  <si>
+    <t>Hermanos  - dijo - , orad; y cuando hayáis orado una y otra vez, y vuelto a orar, sin duda alguna lloverán ratones del cielo.</t>
+  </si>
+  <si>
+    <t>Al oírlo, el perro rió para sus adentros, y se alejó de los gatos, diciendo:</t>
+  </si>
+  <si>
+    <t>¡Ciegos e insensatos felinos!</t>
+  </si>
+  <si>
+    <t>¿No está escrito, y no lo he sabido siempre, y mis padres antes que yo que lo que llueve cuando elevamos al Cielo súplicas y plegarias son huesos, y no ratones?</t>
+  </si>
+  <si>
+    <t>LOS DOS ERMITAÑOS</t>
+  </si>
+  <si>
+    <t>En una lejana montaña vivían dos ermitaños que rendían culto a Dios y que se amaban uno al otro.</t>
+  </si>
+  <si>
+    <t>Los dos ermitaños poseían una escudilla de barro que constituía su única posesión.</t>
+  </si>
+  <si>
+    <t>Un día, un espíritu malo entró en el corazón del ermitaño más viejo, el cual fue a ver al más joven.</t>
+  </si>
+  <si>
+    <t>Hace ya mucho tiempo que hemos vivido juntos  - le dijo - .</t>
+  </si>
+  <si>
+    <t>Ha llegado la hora de separarnos.</t>
+  </si>
+  <si>
+    <t>Por tanto, dividamos nuestras posesiones.</t>
+  </si>
+  <si>
+    <t>Al oírlo, el ermitaño más joven se entristeció.</t>
+  </si>
+  <si>
+    <t>Hermano mío  - dijo - , me causa pesar que tengas que dejarme.</t>
+  </si>
+  <si>
+    <t>Pero si es necesario que te marches, que así sea.</t>
+  </si>
+  <si>
+    <t>Y fue por la escudilla de barro, y se la dio a su compañero, diciéndole</t>
+  </si>
+  <si>
+    <t>No podemos repartirla, hermano; que sea para ti.</t>
+  </si>
+  <si>
+    <t>No acepto tu caridad  - replicó el otro - .</t>
+  </si>
+  <si>
+    <t>No tomaré sino lo que me pertenece.</t>
+  </si>
+  <si>
+    <t>Debemos partirla.</t>
+  </si>
+  <si>
+    <t>El joven razonó:</t>
+  </si>
+  <si>
+    <t>Si rompemos la escudilla, ¿de qué nos servirá a ti o a mí?</t>
+  </si>
+  <si>
+    <t>Si te parece, propongo que la juguemos a suerte.</t>
+  </si>
+  <si>
+    <t>Pero el ermitaño persistió en su empeño.</t>
+  </si>
+  <si>
+    <t>Sólo tomaré lo que en justicia me corresponde, y no confiaré la escudilla ni mis derechos a la suerte.</t>
+  </si>
+  <si>
+    <t>Debe partirse la escudilla.</t>
+  </si>
+  <si>
+    <t>El ermitaño más joven, viendo que no salían razones, dijo:</t>
+  </si>
+  <si>
+    <t>Está bien: si tal es tu deseo, y si te niegas a aceptar la escudilla, rompámosla y repartámosla.</t>
+  </si>
+  <si>
+    <t>Y entonces el rostro del ermitaño más viejo se descompuso de ira, y gritó:</t>
+  </si>
+  <si>
+    <t>¡Ah, maldito_ cobarde!</t>
+  </si>
+  <si>
+    <t>no te atreves a pelear, ¿eh?</t>
+  </si>
+  <si>
+    <t>DEL DAR Y EL RECIBIR</t>
+  </si>
+  <si>
+    <t>Había una vez un hombre que poseía todo un valle lleno de agujas.</t>
+  </si>
+  <si>
+    <t>Y un día, la madre de Jesús acudió a aquel hombre y le dijo:</t>
+  </si>
+  <si>
+    <t>Amigo mío, la túnica de mi hijo se rasgó, y tengo que remendársela antes de que salga para el templo.</t>
+  </si>
+  <si>
+    <t>¿Quieres darme una de tus agujas?</t>
+  </si>
+  <si>
+    <t>Pero, en vez de darle la aguja, aquel hombre pronunció un erudito discurso acerca Del dar y del recibir, para que María se lo repitiera a su Hijo antes de que éste saliera para el templo.</t>
+  </si>
+  <si>
+    <t>LOS SIETE EGOS</t>
+  </si>
+  <si>
+    <t>En la hora más silente de la noche, mientras estaba yo acostado y dormitando, mis siete egos sentáronse en rueda a conversar en susurros, en estos términos:</t>
+  </si>
+  <si>
+    <t>Primer Ego:  - He vivido aquí, en este loco, todos estos años, y no he hecho otra cosa que renovar sus penas de día y reavivar su tristeza de noche.</t>
+  </si>
+  <si>
+    <t>No puedo soportar más mi destino, y me rebelo.</t>
+  </si>
+  <si>
+    <t>Segundo Ego:  - Hermano, es mejor tu destino que el mío, pues me ha tocado ser el ego alegre de este loco.</t>
+  </si>
+  <si>
+    <t>Río cuando está alegre y canto sus horas de dicha, y con pies alados danzo sus más alegres pensamientos.</t>
+  </si>
+  <si>
+    <t>Soy yo quien se rebela contra tan fatigante existencia.</t>
+  </si>
+  <si>
+    <t>Tercer Ego:  -  ¿Y de mi qué decís, el ego aguijoneado por el amor, la tea llameante de salvaje pasión y fantásticos deseos?</t>
+  </si>
+  <si>
+    <t>Es el ego enfermo de amor el que debe rebelarse contra este loco.</t>
+  </si>
+  <si>
+    <t>Cuarto Ego:  - El más miserable de todos vosotros soy yo, pues sólo me tocó en suerte el odio y las ansias destructivas.</t>
+  </si>
+  <si>
+    <t>Yo, el ego tormentoso, el que nació en las negras cuevas del infierno, soy el que tiene más derecho a protestar por servir a este loco.</t>
+  </si>
+  <si>
+    <t>Quinto Ego:  - No; yo soy, el ego pensante, el ego de la imaginación, el que sufre hambre y sed, el condenado a vagar sin descanso en busca de lo desconocido y de lo increado.  soy yo, y no vosotros, quien tiene más derecho a rebelarse.</t>
+  </si>
+  <si>
+    <t>Sexto Ego:  - Y yo, el ego que trabaja, el agobiado trabajador que con pacientes manos y ansiosa mirada va modelando los días en imágenes y va dando a los elementos sin forma contornos nuevos y eternos.  Soy yo, el solitario, el que más motivos tiene para rebelarse contra este inquieto loco.</t>
+  </si>
+  <si>
+    <t>Séptimo Ego:  -  ¡Qué extraño que todos os rebeléis contra este hombre por tener a cada uno de vosotros una misión prescrita de antemano!</t>
+  </si>
+  <si>
+    <t>¡Cómo quisiera ser uno de vosotros, un ego con un propósito y un destino marcado!</t>
+  </si>
+  <si>
+    <t>Pero no; no tengo un propósito fijo: soy el ego que no hace nada; el que se sienta en el mudo y vacío espacio que no es espacio y en el tiempo que no es tiempo, mientras vosotros os afanáis recreándoos en la vida.</t>
+  </si>
+  <si>
+    <t>Decidme, vecinos, ¿quién debe rebelarse: vosotros o yo?</t>
+  </si>
+  <si>
+    <t>Al terminar de hablar el Séptimo Ego, los otros seis lo miraron con lástima, pero no dijeron nada más; y al hacerse la noche más profunda, uno tras otro se fueron a dormir, llenos de una nueva y feliz resignación.</t>
+  </si>
+  <si>
+    <t>Sólo el Séptimo Ego permaneció despierto, mirando y atisbando a la Nada, que está detrás de todas las cosas.</t>
+  </si>
+  <si>
+    <t>LA GUERRA</t>
+  </si>
+  <si>
+    <t>Una noche, hubo fiesta en palacio, y un hombre llegó a postrarse ante el príncipe; todos los invitados se quedaron mirando al recién llegado, y vieron que le faltaba un ojo, y que la cuenca vacía sangraba.</t>
+  </si>
+  <si>
+    <t>Y el príncipe le preguntó a aquel hombre:</t>
+  </si>
+  <si>
+    <t>¿Qué te ha sucedido?</t>
+  </si>
+  <si>
+    <t>¡Oh príncipe!</t>
+  </si>
+  <si>
+    <t>respondió el hombre - , mi profesión es ser ladrón, y esta noche, como no hay luna, fui a robar la tienda del cambista, pero mientras subía y entraba por la ventana cometí un error, y entré en la tienda del tejedor, y en la oscuridad tropecé con el telar del tejedor, y perdí un ojo.</t>
+  </si>
+  <si>
+    <t>Y ahora, ¡oh príncipe!</t>
+  </si>
+  <si>
+    <t>suplico justicia contra el tejedor.</t>
+  </si>
+  <si>
+    <t>El príncipe mandó traer al tejedor y, al llegar éste al palacio, el soberano decretó que le vaciaran un ojo.</t>
+  </si>
+  <si>
+    <t>dijo el tejedor - , el decreto es justo.</t>
+  </si>
+  <si>
+    <t>No me quejo de que me hayan sacado un ojo.</t>
+  </si>
+  <si>
+    <t>Sin embargo, ¡ay de mí!, necesitaba yo los dos ojos para ver los dos lados de la tela que hago.</t>
+  </si>
+  <si>
+    <t>Pero tengo un vecino de oficio zapatero, que tiene los dos ojos sanos, y en su trabajo no necesita los dos ojos.</t>
+  </si>
+  <si>
+    <t>El príncipe entonces, envió por el zapatero.</t>
+  </si>
+  <si>
+    <t>Y éste acudió, y le sacaron un ojo.</t>
+  </si>
+  <si>
+    <t>¡Y se hizo justicia!</t>
+  </si>
+  <si>
+    <t>LA ZORRA</t>
+  </si>
+  <si>
+    <t>Al amanecer, una zorra miró su sombra, y se dijo:</t>
+  </si>
+  <si>
+    <t>Hoy almorzaré un camello.</t>
+  </si>
+  <si>
+    <t>Y pasó toda la mañana buscando camellos.</t>
+  </si>
+  <si>
+    <t>Pero al mediodía volvió a mirar su sombra, y se dijo:  - Bueno.  me conformaré con un ratón.</t>
+  </si>
+  <si>
+    <t>EL REY SABIO</t>
+  </si>
+  <si>
+    <t>Había una vez, en la lejana ciudad de Wirani, un rey que gobernaba a sus súbditos con tanto poder como sabiduría.</t>
+  </si>
+  <si>
+    <t>Y le temían por su poder, y lo amaban por su sabiduría.</t>
+  </si>
+  <si>
+    <t>Había también un el corazón de esa ciudad un pozo de agua fresca y cristalina, del que bebían todos los habitantes; incluso el rey y sus cortesanos, pues era el único pozo de la ciudad.</t>
+  </si>
+  <si>
+    <t>Una noche, cuando todo estaba en calma, una bruja entró en la ciudad y vertió siete gotas de un misterioso líquido en el pozo, al tiempo que decía:</t>
+  </si>
+  <si>
+    <t>Desde este momento, quien beba de esta agua se volverá loco.</t>
+  </si>
+  <si>
+    <t>A la mañana siguiente, todos los habitantes del reino, excepto el rey y su gran chambelán, bebieron del pozo y enloquecieron, tal como había predicho la bruja.</t>
+  </si>
+  <si>
+    <t>Y aquel día, en las callejuelas y en el mercado, la gente no hacía sino cuchichear:</t>
+  </si>
+  <si>
+    <t>El rey está loco.</t>
+  </si>
+  <si>
+    <t>Nuestro rey y su gran chambelán perdieron la razón.</t>
+  </si>
+  <si>
+    <t>No podemos permitir que nos gobierne un rey loco; debemos destronarlo.</t>
+  </si>
+  <si>
+    <t>Aquella noche, el rey ordenó que llenaran con agua del pozo una gran copa de oro.</t>
+  </si>
+  <si>
+    <t>Y cuando se la llevaron, el soberano ávidamente bebió y pasó la copa a su gran chambelán, para que también bebiera.</t>
+  </si>
+  <si>
+    <t>Y hubo un gran regocijo en la lejana ciudad de Wirani, porque el rey y el gran chambelán habían recobrado la razón.</t>
+  </si>
+  <si>
+    <t>Una vez sentáronse a la mesa de una taberna tres hombres.</t>
+  </si>
+  <si>
+    <t>Uno de ellos era tejedor, el otro carpintero, y el tercero sepulturero.</t>
+  </si>
+  <si>
+    <t>Hoy vendí una fina mortaja de lino en dos monedas de oro  - dijo el tejedor - .</t>
+  </si>
+  <si>
+    <t>Por tanto, bebamos todo el vino que nos plazca.</t>
+  </si>
+  <si>
+    <t>Y yo  - dijo el carpintero - , vendí mi mejor ataúd.</t>
+  </si>
+  <si>
+    <t>Además del vino, que nos traigan un suculento asado.</t>
+  </si>
+  <si>
+    <t>Yo sólo cavé una tumba  - dijo el sepulturero - , pero mi amo me pagó el doble.</t>
+  </si>
+  <si>
+    <t>Que nos traigan también pasteles de miel.</t>
+  </si>
+  <si>
+    <t>Y durante toda aquella noche hubo gran movimiento en la taberna, pues los tres amigos a menudo pedían más vino, carne y pasteles.</t>
+  </si>
+  <si>
+    <t>Y estaban muy contentos.</t>
+  </si>
+  <si>
+    <t>Y el tabernero se frotaba las manos, sonriendo a su mujer, pues los huéspedes gastaban espléndidamente.</t>
+  </si>
+  <si>
+    <t>Al salir los tres amigos de la taberna la luna ya estaba en lo alto; iban caminando los tres felices cantando y gritando.</t>
+  </si>
+  <si>
+    <t>El tabernero y su mujer parados a la puerta de la taberna, miraron complacidos a sus huéspedes.</t>
+  </si>
+  <si>
+    <t>¡qué caballeros tan generosos y alegres!</t>
+  </si>
+  <si>
+    <t>exclamó la mujer - .</t>
+  </si>
+  <si>
+    <t>Ojalá que nos trajeran suerte y todos los días fueran así; nuestro hijo no tendría que trabajar de tabernero, ni tendría que afanarse tanto: podríamos darle una buena educación, para que fuera sacerdote.</t>
+  </si>
+  <si>
+    <t>EL NUEVO PLACER</t>
+  </si>
+  <si>
+    <t>Anoche inventé un nuevo placer.</t>
+  </si>
+  <si>
+    <t>y me disponía a probarlo por vez primera cuando un ángel y un demonio llegaron presurosos a mi casa.</t>
+  </si>
+  <si>
+    <t>Ambos se encontraron en mi puerta y disputaron acerca de mi placer recién creado; uno de los dos gritaba:</t>
+  </si>
+  <si>
+    <t>¡Es un pecado!</t>
+  </si>
+  <si>
+    <t>Y el otro, en igual tono aseguraba:  -  ¡Es una virtud!</t>
+  </si>
+  <si>
+    <t>EL OTRO IDIOMA</t>
+  </si>
+  <si>
+    <t>A los tres días de nacido, mientras yacía en mi cuna forrada de seda, mirando con asombrada desilusión el nuevo mundo que me rodeaba, mi madre dijo a mi nodriza:  - ¿Cómo está mi hijo?</t>
+  </si>
+  <si>
+    <t>Muy bien, señora  - mi nodriza le contestó - , lo he alimentado tres veces, y nunca he visto a un niño tan alegre, no obstante lo tierno que es.</t>
+  </si>
+  <si>
+    <t>Y yo me indigné, y lloré, exclamando</t>
+  </si>
+  <si>
+    <t>No es verdad, madre: porque mi lecho es duro, la leche que he succionado es amarga, y el olor del pecho es desagradable a mi nariz, y soy muy desgraciado.</t>
+  </si>
+  <si>
+    <t>Pero mi madre no me comprendió, ni la nodriza; pues el idioma en que había yo hablado era el del mundo del que yo procedía.</t>
+  </si>
+  <si>
+    <t>Y cuando cumplí veintiún días de vida, mientras me bautizaban, el sacerdote le dijo a mi madre:</t>
+  </si>
+  <si>
+    <t>Debe usted ser muy feliz, señora, de que su hijo haya nacido cristiano.</t>
+  </si>
+  <si>
+    <t>Pero el sacerdote tampoco entendió mi idioma.</t>
+  </si>
+  <si>
+    <t>Y siete lunas después, cierto día, un adivino me miró y le dijo a mi madre:</t>
+  </si>
+  <si>
+    <t>Su hijo será un estadista, y un gran líder de los hombres.</t>
+  </si>
+  <si>
+    <t>grité yo - .</t>
+  </si>
+  <si>
+    <t>Esa es una falsa profecía; porque yo seré músico, y nada más que músico!</t>
+  </si>
+  <si>
+    <t>Y tampoco en esa ocasión y teniendo yo esa edad entendían mi idioma, lo cual me asombraba mucho.</t>
+  </si>
+  <si>
+    <t>Y después de treinta y tres años, durante los cuales han muerto ya mi madre, mi nodriza y el sacerdote (la sombra de Dios proteja sus espíritus), sólo sobrevive el adivino.</t>
+  </si>
+  <si>
+    <t>Ayer lo vi cerca de la entrada del templo, y mientras conversábamos, me dijo:</t>
+  </si>
+  <si>
+    <t>Siempre supe que serías músico; que llegarías a ser un gran músico.</t>
+  </si>
+  <si>
+    <t>Eras muy pequeño cuando profeticé tu futuro.</t>
+  </si>
+  <si>
+    <t>Y le creí, pues ahora yo también he olvidado el idioma de aquel otro mundo.</t>
+  </si>
+  <si>
+    <t>LA GRANADA</t>
+  </si>
+  <si>
+    <t>Una vez, mientras vivía yo en el corazón de una granada, oí que una semilla decía;</t>
+  </si>
+  <si>
+    <t>Algún día me convertiré en un árbol, y cantará el viento en mis ramas, y el sol danzará en mis hojas, y seré fuerte y hermoso en todas las estaciones.</t>
+  </si>
+  <si>
+    <t>Luego, otra semilla habló, y dijo:  - Cuando yo era joven, como tú ahora, yo también pensaba así; pero ahora que puedo ponderar mejor todas las cosas, veo que mis esperanzas eran vanas.</t>
+  </si>
+  <si>
+    <t>Y una tercera semilla se expresó así:  - No veo en nosotras nada que prometa tan brillante futuro.</t>
+  </si>
+  <si>
+    <t>Y una cuarta semilla dijo:  -  ¡Pero que ridícula sería nuestra vida, sin la promesa de un futuro mejor!</t>
+  </si>
+  <si>
+    <t>La quinta semilla opinó:  - .¿Para qué disputar acerca de lo que seremos, si ni siquiera sabemos lo que somos?</t>
+  </si>
+  <si>
+    <t>Pero la sexta semilla replicó:  - Seamos lo que seamos, lo seremos siempre.</t>
+  </si>
+  <si>
+    <t>Y la séptima semilla comentó:  - Tengo una idea muy clara acerca de cómo serán las cosas en lo futuro, pero no la puedo expresar con palabras.</t>
+  </si>
+  <si>
+    <t>Y luego habló una octava semilla, y una novena, y luego una décima, y luego muchas, hasta que todas hablaban a un tiempo y no pude distinguir nada de lo que decían todas esas voces.</t>
+  </si>
+  <si>
+    <t>Así pues, aquel mismo día me mudé al corazón de un membrillo, donde las semillas son escasas y casi mudas.</t>
+  </si>
+  <si>
+    <t>LAS DOS JAULAS</t>
+  </si>
+  <si>
+    <t>En el jardín de mi padre hay dos jaulas.</t>
+  </si>
+  <si>
+    <t>En una está encerrado un león, que los esclavos de mi padre trajeron del desierto de Ninavah; en la otra vive un gorrión que no canta.</t>
+  </si>
+  <si>
+    <t>Al amanecer, todos los días, el gorrión le dice al león:  - Buenos días, hermano prisionero.</t>
+  </si>
+  <si>
+    <t>LAS TRES HORMIGAS</t>
+  </si>
+  <si>
+    <t>Tres hormigas se encontraron en la nariz de un hombre que estaba tendido, durmiendo al sol.</t>
+  </si>
+  <si>
+    <t>Y después de saludarse cada hormiga a la manera y usanza de su propia tribu, se detuvieron allí, a conversar.</t>
+  </si>
+  <si>
+    <t>Estas colinas y estas llanuras  - dijo la primera hormiga -  son las más áridas que he visto en mi vida; he buscado todo el día algún grano, y no he encontrado nada.</t>
+  </si>
+  <si>
+    <t>Yo tampoco he encontrado nada  - comentó la segunda hormiga -  aunque he visitado todos los escondrijos.</t>
+  </si>
+  <si>
+    <t>Esta es, supongo, la que llama mi gente la blanda tierra móvil donde no crece nada.</t>
+  </si>
+  <si>
+    <t>Amigas mías  - dijo la tercera hormiga, alzando la cabeza - , estamos paradas ahora en la nariz de la Suprema Hormiga, la poderosa e infinita Hormiga, cuyo cuerpo es tan grande que no podemos verlo, cuya sombra es tan vasta que no podemos abarcar, cuya voz es tan potente que no podemos oírla; y esta Hormiga es omnipresente.</t>
+  </si>
+  <si>
+    <t>Al terminar la tercera hormiga de decir esto, las otras dos se miraron, y rieron.</t>
+  </si>
+  <si>
+    <t>En ese momento el hombre se movió, y en su sueño alzó la mano para rascarse la nariz, y aplastó a las tres hormigas.</t>
+  </si>
+  <si>
+    <t>EL SEPULTURERO</t>
+  </si>
+  <si>
+    <t>Una vez, mientras yo estaba enterrando a uno de mis egos, se acercó a mí el sepulturero, para decirme:</t>
+  </si>
+  <si>
+    <t>De todos los que vienen aquí a enterrar a sus egos muertos, sólo tú me eres simpático.</t>
+  </si>
+  <si>
+    <t>Me halagas mucho  - le repliqué - ; pero, ¿por qué te inspiro tanta simpatía?</t>
+  </si>
+  <si>
+    <t>Porque todos llegan aquí llorando  - me contestó el sepulturero - , y se van llorando; sólo tú llegas riendo, y te marchas riendo, cada vez.</t>
+  </si>
+  <si>
+    <t>EN LA ESCALINATA DEL TEMPLO</t>
+  </si>
+  <si>
+    <t>Ayer tarde, en la escalinata de mármol del templo vi a una mujer sentada entre dos hombres.</t>
+  </si>
+  <si>
+    <t>Una de las mejillas de la mujer estaba pálida, y la otra, sonrojada.</t>
+  </si>
+  <si>
+    <t>LA CIUDAD BENDITA</t>
+  </si>
+  <si>
+    <t>Era yo muy joven cuando me dijeron que en cierta ciudad todos sus habitantes vivían con apego a las Escrituras.</t>
+  </si>
+  <si>
+    <t>Y me dije: Buscaré esa ciudad y la santidad que en ella se encuentra""."</t>
+  </si>
+  <si>
+    <t>Y ahora, me voy, como se han ido ya otros crucificados.</t>
+  </si>
+  <si>
+    <t>Y no penséis que nosotros los locos estamos cansados de tanta crucifixión.</t>
+  </si>
+  <si>
+    <t>Pues debemos ser crucificados por hombres cada vez más grandes, entre tierras más vastas y cielos más espaciosos.</t>
+  </si>
+  <si>
+    <t>EL ASTRÓNOMO</t>
+  </si>
+  <si>
+    <t>A la sombra del templo mi amigo y yo vimos a un ciego, sentado allí, solitario.</t>
+  </si>
+  <si>
+    <t>Mira  - dijo mi amigo - : ese es el hombre más sabio de nuestra tierra.</t>
+  </si>
+  <si>
+    <t>Me separé de mi amigo y me acerqué al ciego.</t>
+  </si>
+  <si>
+    <t>Lo saludé.</t>
+  </si>
+  <si>
+    <t>Y conversamos.</t>
+  </si>
+  <si>
+    <t>Poco después le dije:</t>
+  </si>
+  <si>
+    <t>Perdona mi pregunta: ¿desde cuándo eres ciego?</t>
+  </si>
+  <si>
+    <t>Desde que nací  - fue su respuesta.</t>
+  </si>
+  <si>
+    <t>¿Y qué sendero de sabiduría sigues?</t>
+  </si>
+  <si>
+    <t>le dije entonces.</t>
+  </si>
+  <si>
+    <t>Soy astrónomo  - me contestó el ciego.</t>
+  </si>
+  <si>
+    <t>Luego, se llevó la mano al pecho, y dijo: - Sí; observo todos estos soles, y estas lunas, y estas estrellas.</t>
+  </si>
+  <si>
+    <t>EL GRAN ANHELO</t>
+  </si>
+  <si>
+    <t>Aquí estoy, sentado entre mi hermana la montaña y mi hermana la mar.</t>
+  </si>
+  <si>
+    <t>Los tres somos uno en nuestra soledad, y el amor que nos une es profundo, fuerte y extraño.</t>
+  </si>
+  <si>
+    <t>En realidad, este amor es más profundo que mi hermana la mar y más fuerte que mi hermana la montaña, y más extraño que lo insólito de mi locura.</t>
+  </si>
+  <si>
+    <t>Han pasado eones y más eones desde que la primera alborada gris nos hizo visibles uno al otro; y aunque hemos visto el nacimiento, la plenitud y la muerte de muchos mundos, aún somos vehementes y jóvenes.</t>
+  </si>
+  <si>
+    <t>Somos jóvenes y vehementes, y no obstante estamos solos y nadie nos visita, y a pesar de que yacemos en un abrazo casi completo y sin trabas, no hemos hallado consuelo.</t>
+  </si>
+  <si>
+    <t>Pues, decidme: ¿qué consuelo puede haber para el deseo controlado y la pasión inexhausta?</t>
+  </si>
+  <si>
+    <t>¿De dónde vendrá el flamígero dios que dé calor al lecho de mi hermana la mar?</t>
+  </si>
+  <si>
+    <t>¿Y qué torrentes aplacará el fuego de mi hermana la montaña?</t>
+  </si>
+  <si>
+    <t>¿Y qué mujer podrá adueñarse de mi corazón?</t>
+  </si>
+  <si>
+    <t>En el silencio de la noche, en sueños, mi hermana la mar susurra el ignoto nombre del dios flamígero, y mi hermana la montaña llama a lo lejos al fresco y distante dios - torrente.</t>
+  </si>
+  <si>
+    <t>Pero yo no sé a quién llamar en mi sueño.</t>
+  </si>
+  <si>
+    <t>Aquí estoy sentado, entre mi hermana la montaña y mi hermana la mar.</t>
+  </si>
+  <si>
+    <t>Los tres somos uno en nuestra soledad, y el amor que nos une es en verdad profundo, fuerte, y extraño.</t>
+  </si>
+  <si>
+    <t>DIJO UNA HOJA DE HIERBA</t>
+  </si>
+  <si>
+    <t>Dijo una mata de hierba a una hoja de otoño:</t>
+  </si>
+  <si>
+    <t>¡Al caer haces tanto ruido, que espantas a todos mis sueños invernales!</t>
+  </si>
+  <si>
+    <t>Ser de baja cuna y de miserable morada  - dijo la hoja, indignada - , ser malhumorado y sin canto: ¡tú no vives en la región alta del aire, y desconoces el sonido del canto!</t>
+  </si>
+  <si>
+    <t>Luego, la hoja de otoño cayó sobre la tierra, y se durmió.</t>
+  </si>
+  <si>
+    <t>Y al llegar la primavera, la hoja despertó nuevamente, y se convirtió en una mata de hierba.</t>
+  </si>
+  <si>
+    <t>Y cuando el otoño llegó, y la mata de hierba comenzó a adormecerse con el sueño invernal, las hojas del otoño, meciéndose en el viento, iban cayendo sobre ella.</t>
+  </si>
+  <si>
+    <t>Entonces se dijo, enojada: ¡Ah, estas hojas de otoño!"</t>
+  </si>
+  <si>
+    <t>Me asombré mucho al oír aquello, y le dije al sacerdote:</t>
+  </si>
+  <si>
+    <t>En ese caso, la madre de usted, no está en el Cielo, debe ser muy infeliz, pues usted no nació cristiano.</t>
   </si>
 </sst>
 </file>
@@ -1095,12 +1578,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1115,11 +1610,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B1EE99-B74C-45F5-A7A7-AF60570331D2}">
-  <dimension ref="A1:A259"/>
+  <dimension ref="A1:A513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A259"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226:A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,1033 +2203,2302 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
+      <c r="A55" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>53</v>
+      <c r="A56" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>54</v>
+      <c r="A57" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>55</v>
+      <c r="A58" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>56</v>
+      <c r="A59" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>57</v>
+      <c r="A60" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
+      <c r="A61" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>59</v>
+      <c r="A62" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
+      <c r="A63" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>61</v>
+      <c r="A64" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>62</v>
+      <c r="A65" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>63</v>
+      <c r="A66" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>64</v>
+      <c r="A67" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>65</v>
+      <c r="A68" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>66</v>
+      <c r="A69" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>67</v>
+      <c r="A70" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>68</v>
+      <c r="A71" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>69</v>
+      <c r="A72" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>70</v>
+      <c r="A73" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>71</v>
+      <c r="A74" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>72</v>
+      <c r="A75" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>73</v>
+      <c r="A76" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>74</v>
+      <c r="A77" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>75</v>
+      <c r="A78" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>76</v>
+      <c r="A79" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>77</v>
+      <c r="A80" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>78</v>
+      <c r="A81" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>79</v>
+      <c r="A82" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>80</v>
+      <c r="A83" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>81</v>
+      <c r="A84" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>82</v>
+      <c r="A85" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>83</v>
+      <c r="A86" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>84</v>
+      <c r="A87" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="e" cm="1">
-        <f t="array" ref="A88">- Pues has de saber que también a mi me han llamado por tu nombre  - dijo el Dios Bueno.</f>
-        <v>#NAME?</v>
+      <c r="A88" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>85</v>
+      <c r="A89" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>86</v>
+      <c r="A90" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>87</v>
+      <c r="A91" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>88</v>
+      <c r="A92" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>89</v>
+      <c r="A93" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>90</v>
+      <c r="A94" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>91</v>
+      <c r="A95" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>92</v>
+      <c r="A96" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>93</v>
+      <c r="A97" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>94</v>
+      <c r="A98" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>95</v>
+      <c r="A99" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>96</v>
+      <c r="A100" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>97</v>
+      <c r="A101" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>98</v>
+      <c r="A102" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>99</v>
+      <c r="A103" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>100</v>
+      <c r="A104" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>101</v>
+      <c r="A105" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>102</v>
+      <c r="A106" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>103</v>
+      <c r="A107" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>104</v>
+      <c r="A108" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>105</v>
+      <c r="A109" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>106</v>
+      <c r="A110" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>107</v>
+      <c r="A111" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>108</v>
+      <c r="A112" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>109</v>
+      <c r="A113" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>110</v>
+      <c r="A114" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>111</v>
+      <c r="A115" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>112</v>
+      <c r="A116" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>113</v>
+      <c r="A117" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>114</v>
+      <c r="A118" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>115</v>
+      <c r="A119" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>116</v>
+      <c r="A120" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>117</v>
+      <c r="A121" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>118</v>
+      <c r="A122" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>119</v>
+      <c r="A123" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>120</v>
+      <c r="A124" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>121</v>
+      <c r="A125" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>122</v>
+      <c r="A126" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>123</v>
+      <c r="A127" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>124</v>
+      <c r="A128" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>125</v>
+      <c r="A129" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>126</v>
+      <c r="A130" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>127</v>
+      <c r="A131" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>128</v>
+      <c r="A132" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>129</v>
+      <c r="A133" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>130</v>
+      <c r="A134" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>131</v>
+      <c r="A135" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>132</v>
+      <c r="A136" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>133</v>
+      <c r="A137" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>134</v>
+      <c r="A138" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>135</v>
+      <c r="A139" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>136</v>
+      <c r="A140" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>137</v>
+      <c r="A141" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>138</v>
+      <c r="A142" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>139</v>
+      <c r="A143" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>140</v>
+      <c r="A144" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>141</v>
+      <c r="A145" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>142</v>
+      <c r="A146" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>143</v>
+      <c r="A147" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>144</v>
+      <c r="A148" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>145</v>
+      <c r="A149" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>146</v>
+      <c r="A150" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>147</v>
+      <c r="A151" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>148</v>
+      <c r="A152" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>149</v>
+      <c r="A153" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>150</v>
+      <c r="A154" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>151</v>
+      <c r="A155" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>152</v>
+      <c r="A156" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>153</v>
+      <c r="A157" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>154</v>
+      <c r="A158" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>155</v>
+      <c r="A159" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>156</v>
+      <c r="A160" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>157</v>
+      <c r="A161" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>158</v>
+      <c r="A162" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>159</v>
+      <c r="A163" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>160</v>
+      <c r="A164" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>161</v>
+      <c r="A165" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>162</v>
+      <c r="A166" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>163</v>
+      <c r="A167" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>164</v>
+      <c r="A168" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>165</v>
+      <c r="A169" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>166</v>
+      <c r="A170" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>167</v>
+      <c r="A171" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>168</v>
+      <c r="A172" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>169</v>
+      <c r="A173" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>170</v>
+      <c r="A174" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>171</v>
+      <c r="A175" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>172</v>
+      <c r="A176" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>173</v>
+      <c r="A177" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>174</v>
+      <c r="A178" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>175</v>
+      <c r="A179" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>176</v>
+      <c r="A180" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>177</v>
+      <c r="A181" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>178</v>
+      <c r="A182" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>179</v>
+      <c r="A183" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>180</v>
+      <c r="A184" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>181</v>
+      <c r="A185" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>182</v>
+      <c r="A186" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>183</v>
+      <c r="A187" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>184</v>
+      <c r="A188" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>185</v>
+      <c r="A189" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>186</v>
+      <c r="A190" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>187</v>
+      <c r="A191" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>188</v>
+      <c r="A192" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
